--- a/Tester Results/SIGNIFICANT_SEX_SPLIT_STRENGTH.xlsx
+++ b/Tester Results/SIGNIFICANT_SEX_SPLIT_STRENGTH.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2881</v>
+        <v>2854.5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.319259952975573e-18</v>
+        <v>9.678486647904019e-18</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2877</v>
+        <v>2853</v>
       </c>
       <c r="D3" t="n">
-        <v>2.884212834002263e-18</v>
+        <v>1.04889621551362e-17</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2885</v>
+        <v>2866</v>
       </c>
       <c r="D4" t="n">
-        <v>1.866605974512797e-18</v>
+        <v>5.226067220864501e-18</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2872</v>
+        <v>2845</v>
       </c>
       <c r="D5" t="n">
-        <v>3.781029645574401e-18</v>
+        <v>1.605320678494065e-17</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="D6" t="n">
-        <v>2.831991584422178e-08</v>
+        <v>9.477762264294651e-08</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2802</v>
+        <v>2769</v>
       </c>
       <c r="D7" t="n">
-        <v>1.518005587749135e-16</v>
+        <v>8.124391648480844e-16</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2317</v>
+        <v>2291.5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.327251541174455e-07</v>
+        <v>3.081668371211657e-07</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2319</v>
+        <v>2294</v>
       </c>
       <c r="D9" t="n">
-        <v>1.241305380257165e-07</v>
+        <v>2.841082786894367e-07</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2343.5</v>
+        <v>2325.5</v>
       </c>
       <c r="D10" t="n">
-        <v>5.392470860916908e-08</v>
+        <v>9.970638347097092e-08</v>
       </c>
     </row>
     <row r="11">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="D11" t="n">
-        <v>4.500090349749989e-06</v>
+        <v>6.967746673021748e-06</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>619</v>
+        <v>668</v>
       </c>
       <c r="D12" t="n">
-        <v>2.57546540999095e-07</v>
+        <v>1.228095953271e-06</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.011659015939608</v>
+        <v>0.0143425869300039</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2794.5</v>
+        <v>2765.5</v>
       </c>
       <c r="D14" t="n">
-        <v>2.228994531060003e-16</v>
+        <v>9.675793078764738e-16</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2796.5</v>
+        <v>2762.5</v>
       </c>
       <c r="D15" t="n">
-        <v>2.013005462562422e-16</v>
+        <v>1.124977502221397e-15</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2783</v>
+        <v>2751</v>
       </c>
       <c r="D16" t="n">
-        <v>4.007498468993686e-16</v>
+        <v>1.994085701096179e-15</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2531.5</v>
+        <v>2482.5</v>
       </c>
       <c r="D17" t="n">
-        <v>4.309694894180837e-11</v>
+        <v>3.135217188643167e-10</v>
       </c>
     </row>
     <row r="18">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="D18" t="n">
-        <v>1.791962740654362e-07</v>
+        <v>7.214238235572668e-07</v>
       </c>
     </row>
     <row r="19">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2040</v>
+        <v>1986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0003529112438522091</v>
+        <v>0.001190268706429939</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/SIGNIFICANT_SEX_SPLIT_STRENGTH.xlsx
+++ b/Tester Results/SIGNIFICANT_SEX_SPLIT_STRENGTH.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2854.5</v>
+        <v>2881</v>
       </c>
       <c r="D2" t="n">
-        <v>9.678486647904019e-18</v>
+        <v>2.319259952975573e-18</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2853</v>
+        <v>2877</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04889621551362e-17</v>
+        <v>2.884212834002263e-18</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2866</v>
+        <v>2885</v>
       </c>
       <c r="D4" t="n">
-        <v>5.226067220864501e-18</v>
+        <v>1.866605974512797e-18</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2845</v>
+        <v>2872</v>
       </c>
       <c r="D5" t="n">
-        <v>1.605320678494065e-17</v>
+        <v>3.781029645574401e-18</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="D6" t="n">
-        <v>9.477762264294651e-08</v>
+        <v>2.831991584422178e-08</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2769</v>
+        <v>2802</v>
       </c>
       <c r="D7" t="n">
-        <v>8.124391648480844e-16</v>
+        <v>1.518005587749135e-16</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2291.5</v>
+        <v>2317</v>
       </c>
       <c r="D8" t="n">
-        <v>3.081668371211657e-07</v>
+        <v>1.327251541174455e-07</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2294</v>
+        <v>2319</v>
       </c>
       <c r="D9" t="n">
-        <v>2.841082786894367e-07</v>
+        <v>1.241305380257165e-07</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2325.5</v>
+        <v>2343.5</v>
       </c>
       <c r="D10" t="n">
-        <v>9.970638347097092e-08</v>
+        <v>5.392470860916908e-08</v>
       </c>
     </row>
     <row r="11">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2190</v>
+        <v>2205</v>
       </c>
       <c r="D11" t="n">
-        <v>6.967746673021748e-06</v>
+        <v>4.500090349749989e-06</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>668</v>
+        <v>619</v>
       </c>
       <c r="D12" t="n">
-        <v>1.228095953271e-06</v>
+        <v>2.57546540999095e-07</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1857</v>
+        <v>1869</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0143425869300039</v>
+        <v>0.011659015939608</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2765.5</v>
+        <v>2794.5</v>
       </c>
       <c r="D14" t="n">
-        <v>9.675793078764738e-16</v>
+        <v>2.228994531060003e-16</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2762.5</v>
+        <v>2796.5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.124977502221397e-15</v>
+        <v>2.013005462562422e-16</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2751</v>
+        <v>2783</v>
       </c>
       <c r="D16" t="n">
-        <v>1.994085701096179e-15</v>
+        <v>4.007498468993686e-16</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2482.5</v>
+        <v>2531.5</v>
       </c>
       <c r="D17" t="n">
-        <v>3.135217188643167e-10</v>
+        <v>4.309694894180837e-11</v>
       </c>
     </row>
     <row r="18">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>651</v>
+        <v>608</v>
       </c>
       <c r="D18" t="n">
-        <v>7.214238235572668e-07</v>
+        <v>1.791962740654362e-07</v>
       </c>
     </row>
     <row r="19">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1986</v>
+        <v>2040</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001190268706429939</v>
+        <v>0.0003529112438522091</v>
       </c>
     </row>
   </sheetData>
